--- a/tests/excel/render_source_file/multi.xlsx
+++ b/tests/excel/render_source_file/multi.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack-\userfiles\software-devel\python\pytools\csv_converter\tests\excel\render_source_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5163C0AA-FC10-4F42-9EEB-E763EA70B32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105CCE31-0D88-4F52-911E-BB44DD680F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="2040" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32145" yWindow="2385" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Name01" sheetId="1" r:id="rId3"/>
+    <sheet name="Name02" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,36 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Adams</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -109,6 +87,114 @@
   </si>
   <si>
     <t>sheet2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Head-End</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>4G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>4D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>5G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unreadable</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,10 +519,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D21775-F171-4E67-88B5-1B7716B29ACF}">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382E4773-002B-43CB-B79F-2687DE93020C}">
+  <dimension ref="C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -445,114 +575,114 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -562,12 +692,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF5FE17-EBF8-4F49-9AC4-305048D5AFCA}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -577,36 +707,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -615,21 +745,21 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -638,21 +768,21 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,21 +791,21 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -684,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
